--- a/data/rice/export_th/ex2548.xlsx
+++ b/data/rice/export_th/ex2548.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyayut.chi\Documents\github\price_transmission\data\rice\export_th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94892A43-77D6-4440-9357-749DB324AF4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5AB675-8882-4F08-B3F2-1E64A30B7E4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ราคาFOB2548" sheetId="1" r:id="rId1"/>
@@ -460,18 +460,6 @@
     <t>RWXSA1FU</t>
   </si>
   <si>
-    <t>RGWB10LU</t>
-  </si>
-  <si>
-    <t>RGWS10LU</t>
-  </si>
-  <si>
-    <t>RGWB10SU</t>
-  </si>
-  <si>
-    <t>RGWS10SU</t>
-  </si>
-  <si>
     <t>RGXBA1FU</t>
   </si>
   <si>
@@ -566,6 +554,18 @@
   </si>
   <si>
     <t>RFXSA1EO</t>
+  </si>
+  <si>
+    <t>RGXB10LU</t>
+  </si>
+  <si>
+    <t>RGXS10LU</t>
+  </si>
+  <si>
+    <t>RGXB10SU</t>
+  </si>
+  <si>
+    <t>RGXS10SU</t>
   </si>
 </sst>
 </file>
@@ -13234,7 +13234,7 @@
   <dimension ref="A1:M95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -14150,7 +14150,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>38</v>
@@ -14179,7 +14179,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>71</v>
@@ -14204,7 +14204,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>41</v>
@@ -14233,7 +14233,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>71</v>
@@ -14442,7 +14442,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="54" t="s">
         <v>47</v>
@@ -14471,7 +14471,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="55" t="s">
         <v>71</v>
@@ -14496,7 +14496,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="53" t="s">
         <v>48</v>
@@ -14525,7 +14525,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="55" t="s">
         <v>71</v>
@@ -14561,7 +14561,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="51" t="s">
         <v>50</v>
@@ -14590,7 +14590,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="52" t="s">
         <v>71</v>
@@ -14626,7 +14626,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="51" t="s">
         <v>52</v>
@@ -14655,7 +14655,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="52" t="s">
         <v>71</v>
@@ -14680,7 +14680,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="51" t="s">
         <v>53</v>
@@ -14709,7 +14709,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="52" t="s">
         <v>71</v>
@@ -14734,7 +14734,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="50" t="s">
         <v>54</v>
@@ -14763,7 +14763,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="52" t="s">
         <v>71</v>
@@ -14788,7 +14788,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="50" t="s">
         <v>55</v>
@@ -14817,7 +14817,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="52" t="s">
         <v>71</v>
@@ -14842,7 +14842,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="53" t="s">
         <v>56</v>
@@ -14871,7 +14871,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="55" t="s">
         <v>71</v>
@@ -14907,7 +14907,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="51" t="s">
         <v>73</v>
@@ -14936,7 +14936,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="52" t="s">
         <v>71</v>
@@ -14972,7 +14972,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="51" t="s">
         <v>60</v>
@@ -15001,7 +15001,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="51" t="s">
         <v>71</v>
@@ -15026,7 +15026,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="50" t="s">
         <v>61</v>
@@ -15055,7 +15055,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="52" t="s">
         <v>71</v>
@@ -15080,7 +15080,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="50" t="s">
         <v>62</v>
@@ -15109,7 +15109,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="52" t="s">
         <v>71</v>
@@ -15134,7 +15134,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="50" t="s">
         <v>63</v>
@@ -15163,7 +15163,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="52" t="s">
         <v>71</v>
@@ -15188,7 +15188,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="50" t="s">
         <v>64</v>
@@ -15217,7 +15217,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="52" t="s">
         <v>71</v>
@@ -15242,7 +15242,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="50" t="s">
         <v>65</v>
@@ -15271,7 +15271,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="52" t="s">
         <v>71</v>
@@ -15307,7 +15307,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="51" t="s">
         <v>67</v>
@@ -15336,7 +15336,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="52" t="s">
         <v>71</v>
@@ -15494,7 +15494,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -16485,7 +16485,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>38</v>
@@ -16517,7 +16517,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>71</v>
@@ -16544,7 +16544,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>41</v>
@@ -16576,7 +16576,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>71</v>
@@ -16808,7 +16808,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
@@ -16840,7 +16840,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="35" t="s">
         <v>71</v>
@@ -16867,7 +16867,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="58" t="s">
         <v>48</v>
@@ -16899,7 +16899,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="59" t="s">
         <v>71</v>
@@ -16940,7 +16940,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>50</v>
@@ -16972,7 +16972,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>71</v>
@@ -17013,7 +17013,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>52</v>
@@ -17045,7 +17045,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>71</v>
@@ -17072,7 +17072,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>53</v>
@@ -17104,7 +17104,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>71</v>
@@ -17131,7 +17131,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="45" t="s">
         <v>54</v>
@@ -17163,7 +17163,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>71</v>
@@ -17190,7 +17190,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="58" t="s">
         <v>55</v>
@@ -17222,7 +17222,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="59" t="s">
         <v>71</v>
@@ -17249,7 +17249,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="58" t="s">
         <v>56</v>
@@ -17281,7 +17281,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="59" t="s">
         <v>71</v>
@@ -17312,7 +17312,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="60" t="s">
         <v>58</v>
@@ -17344,7 +17344,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="59" t="s">
         <v>71</v>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="41" t="s">
         <v>60</v>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="41" t="s">
         <v>71</v>
@@ -17434,7 +17434,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="41" t="s">
         <v>61</v>
@@ -17466,7 +17466,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="41" t="s">
         <v>71</v>
@@ -17493,7 +17493,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="41" t="s">
         <v>62</v>
@@ -17525,7 +17525,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="41" t="s">
         <v>71</v>
@@ -17552,7 +17552,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="41" t="s">
         <v>63</v>
@@ -17584,7 +17584,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="41" t="s">
         <v>71</v>
@@ -17611,7 +17611,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="41" t="s">
         <v>64</v>
@@ -17643,7 +17643,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="41" t="s">
         <v>71</v>
@@ -17670,7 +17670,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="58" t="s">
         <v>65</v>
@@ -17702,7 +17702,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="59" t="s">
         <v>71</v>
@@ -17743,7 +17743,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="41" t="s">
         <v>67</v>
@@ -17775,7 +17775,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="41" t="s">
         <v>71</v>
@@ -17890,7 +17890,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -18805,7 +18805,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="110" t="s">
         <v>38</v>
@@ -18834,7 +18834,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="111" t="s">
         <v>71</v>
@@ -18859,7 +18859,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="114" t="s">
         <v>41</v>
@@ -18888,7 +18888,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="111" t="s">
         <v>71</v>
@@ -19097,7 +19097,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="110" t="s">
         <v>47</v>
@@ -19126,7 +19126,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="111" t="s">
         <v>71</v>
@@ -19151,7 +19151,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="112" t="s">
         <v>48</v>
@@ -19180,7 +19180,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="113" t="s">
         <v>71</v>
@@ -19216,7 +19216,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="110" t="s">
         <v>50</v>
@@ -19245,7 +19245,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="111" t="s">
         <v>71</v>
@@ -19281,7 +19281,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="110" t="s">
         <v>52</v>
@@ -19310,7 +19310,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="111" t="s">
         <v>71</v>
@@ -19335,7 +19335,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="110" t="s">
         <v>53</v>
@@ -19364,7 +19364,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="111" t="s">
         <v>71</v>
@@ -19389,7 +19389,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="114" t="s">
         <v>54</v>
@@ -19418,7 +19418,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="111" t="s">
         <v>71</v>
@@ -19443,7 +19443,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="112" t="s">
         <v>55</v>
@@ -19472,7 +19472,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="113" t="s">
         <v>71</v>
@@ -19497,7 +19497,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="112" t="s">
         <v>56</v>
@@ -19526,7 +19526,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="113" t="s">
         <v>71</v>
@@ -19554,7 +19554,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="115" t="s">
         <v>58</v>
@@ -19583,7 +19583,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="113" t="s">
         <v>71</v>
@@ -19611,7 +19611,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="108" t="s">
         <v>60</v>
@@ -19640,7 +19640,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="108" t="s">
         <v>71</v>
@@ -19665,7 +19665,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="108" t="s">
         <v>61</v>
@@ -19694,7 +19694,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="108" t="s">
         <v>71</v>
@@ -19719,7 +19719,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="108" t="s">
         <v>62</v>
@@ -19748,7 +19748,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="108" t="s">
         <v>71</v>
@@ -19773,7 +19773,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="108" t="s">
         <v>63</v>
@@ -19802,7 +19802,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="108" t="s">
         <v>71</v>
@@ -19827,7 +19827,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="108" t="s">
         <v>64</v>
@@ -19856,7 +19856,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="108" t="s">
         <v>71</v>
@@ -19881,7 +19881,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="112" t="s">
         <v>65</v>
@@ -19910,7 +19910,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="113" t="s">
         <v>71</v>
@@ -19946,7 +19946,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="108" t="s">
         <v>67</v>
@@ -19975,7 +19975,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="108" t="s">
         <v>71</v>
@@ -20078,8 +20078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -20990,7 +20990,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>38</v>
@@ -21019,7 +21019,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>71</v>
@@ -21044,7 +21044,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>41</v>
@@ -21073,7 +21073,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>71</v>
@@ -21282,7 +21282,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
@@ -21311,7 +21311,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="35" t="s">
         <v>71</v>
@@ -21336,7 +21336,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="58" t="s">
         <v>48</v>
@@ -21365,7 +21365,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="59" t="s">
         <v>71</v>
@@ -21401,7 +21401,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>50</v>
@@ -21430,7 +21430,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>71</v>
@@ -21466,7 +21466,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>52</v>
@@ -21495,7 +21495,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>71</v>
@@ -21520,7 +21520,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>53</v>
@@ -21549,7 +21549,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>71</v>
@@ -21574,7 +21574,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="45" t="s">
         <v>54</v>
@@ -21603,7 +21603,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>71</v>
@@ -21628,7 +21628,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="58" t="s">
         <v>55</v>
@@ -21657,7 +21657,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="59" t="s">
         <v>71</v>
@@ -21682,7 +21682,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="58" t="s">
         <v>56</v>
@@ -21711,7 +21711,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="59" t="s">
         <v>71</v>
@@ -21739,7 +21739,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="60" t="s">
         <v>58</v>
@@ -21768,7 +21768,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="59" t="s">
         <v>71</v>
@@ -21796,7 +21796,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="41" t="s">
         <v>60</v>
@@ -21825,7 +21825,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="41" t="s">
         <v>71</v>
@@ -21850,7 +21850,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="41" t="s">
         <v>61</v>
@@ -21879,7 +21879,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="41" t="s">
         <v>71</v>
@@ -21904,7 +21904,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="41" t="s">
         <v>62</v>
@@ -21933,7 +21933,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="41" t="s">
         <v>71</v>
@@ -21958,7 +21958,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="41" t="s">
         <v>63</v>
@@ -21987,7 +21987,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="41" t="s">
         <v>71</v>
@@ -22012,7 +22012,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="41" t="s">
         <v>64</v>
@@ -22041,7 +22041,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="41" t="s">
         <v>71</v>
@@ -22066,7 +22066,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="58" t="s">
         <v>65</v>
@@ -22095,7 +22095,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="59" t="s">
         <v>71</v>
@@ -22131,7 +22131,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="41" t="s">
         <v>67</v>
@@ -22160,7 +22160,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="41" t="s">
         <v>71</v>
@@ -22263,13 +22263,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
@@ -23257,7 +23257,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="41" t="s">
         <v>38</v>
@@ -23289,7 +23289,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>71</v>
@@ -23316,7 +23316,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="41" t="s">
         <v>41</v>
@@ -23348,7 +23348,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>71</v>
@@ -23574,7 +23574,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="41" t="s">
         <v>47</v>
@@ -23606,7 +23606,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="35" t="s">
         <v>71</v>
@@ -23633,7 +23633,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="41" t="s">
         <v>48</v>
@@ -23665,7 +23665,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>71</v>
@@ -23703,7 +23703,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="41" t="s">
         <v>50</v>
@@ -23735,7 +23735,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>71</v>
@@ -23773,7 +23773,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>52</v>
@@ -23805,7 +23805,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>71</v>
@@ -23832,7 +23832,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="41" t="s">
         <v>53</v>
@@ -23864,7 +23864,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>71</v>
@@ -23891,7 +23891,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="41" t="s">
         <v>54</v>
@@ -23923,7 +23923,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>71</v>
@@ -23950,7 +23950,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="45" t="s">
         <v>55</v>
@@ -23982,7 +23982,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="35" t="s">
         <v>71</v>
@@ -24009,7 +24009,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="45" t="s">
         <v>56</v>
@@ -24041,7 +24041,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="35" t="s">
         <v>71</v>
@@ -24079,7 +24079,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="41" t="s">
         <v>58</v>
@@ -24111,7 +24111,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>71</v>
@@ -24149,7 +24149,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="41" t="s">
         <v>60</v>
@@ -24181,7 +24181,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>71</v>
@@ -24208,7 +24208,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="41" t="s">
         <v>61</v>
@@ -24240,7 +24240,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>71</v>
@@ -24267,7 +24267,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="41" t="s">
         <v>62</v>
@@ -24299,7 +24299,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="35" t="s">
         <v>71</v>
@@ -24326,7 +24326,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="41" t="s">
         <v>63</v>
@@ -24358,7 +24358,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="35" t="s">
         <v>71</v>
@@ -24385,7 +24385,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="41" t="s">
         <v>64</v>
@@ -24417,7 +24417,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="35" t="s">
         <v>71</v>
@@ -24444,7 +24444,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="41" t="s">
         <v>65</v>
@@ -24476,7 +24476,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="35" t="s">
         <v>71</v>
@@ -24514,7 +24514,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="41" t="s">
         <v>67</v>
@@ -24546,7 +24546,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="35" t="s">
         <v>71</v>
@@ -24655,8 +24655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -25533,7 +25533,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>43</v>
@@ -25562,7 +25562,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>71</v>
@@ -25587,7 +25587,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>41</v>
@@ -25616,7 +25616,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>71</v>
@@ -25825,7 +25825,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
@@ -25854,7 +25854,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="35" t="s">
         <v>71</v>
@@ -25879,7 +25879,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="45" t="s">
         <v>48</v>
@@ -25908,7 +25908,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>71</v>
@@ -25944,7 +25944,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>50</v>
@@ -25973,7 +25973,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>71</v>
@@ -26009,7 +26009,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>52</v>
@@ -26038,7 +26038,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>71</v>
@@ -26063,7 +26063,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>53</v>
@@ -26092,7 +26092,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>71</v>
@@ -26117,7 +26117,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="45" t="s">
         <v>54</v>
@@ -26146,7 +26146,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>71</v>
@@ -26171,7 +26171,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="45" t="s">
         <v>55</v>
@@ -26200,7 +26200,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="35" t="s">
         <v>71</v>
@@ -26225,7 +26225,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="45" t="s">
         <v>56</v>
@@ -26254,7 +26254,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="35" t="s">
         <v>71</v>
@@ -26290,7 +26290,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>58</v>
@@ -26319,7 +26319,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>71</v>
@@ -26355,7 +26355,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>60</v>
@@ -26384,7 +26384,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>71</v>
@@ -26409,7 +26409,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="45" t="s">
         <v>61</v>
@@ -26438,7 +26438,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>71</v>
@@ -26463,7 +26463,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="45" t="s">
         <v>62</v>
@@ -26492,7 +26492,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="35" t="s">
         <v>71</v>
@@ -26517,7 +26517,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="45" t="s">
         <v>63</v>
@@ -26546,7 +26546,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="35" t="s">
         <v>71</v>
@@ -26571,7 +26571,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="45" t="s">
         <v>64</v>
@@ -26600,7 +26600,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="35" t="s">
         <v>71</v>
@@ -26625,7 +26625,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="45" t="s">
         <v>65</v>
@@ -26654,7 +26654,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="35" t="s">
         <v>71</v>
@@ -26690,7 +26690,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>67</v>
@@ -26719,7 +26719,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="35" t="s">
         <v>71</v>
@@ -26822,7 +26822,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -27778,7 +27778,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>38</v>
@@ -27810,7 +27810,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>71</v>
@@ -27837,7 +27837,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>41</v>
@@ -27869,7 +27869,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>71</v>
@@ -28095,7 +28095,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
@@ -28127,7 +28127,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="35" t="s">
         <v>71</v>
@@ -28154,7 +28154,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="45" t="s">
         <v>48</v>
@@ -28186,7 +28186,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>71</v>
@@ -28224,7 +28224,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>50</v>
@@ -28256,7 +28256,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>71</v>
@@ -28294,7 +28294,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>52</v>
@@ -28326,7 +28326,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>71</v>
@@ -28353,7 +28353,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>53</v>
@@ -28385,7 +28385,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>71</v>
@@ -28412,7 +28412,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="45" t="s">
         <v>54</v>
@@ -28444,7 +28444,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>71</v>
@@ -28471,7 +28471,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="45" t="s">
         <v>55</v>
@@ -28503,7 +28503,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="35" t="s">
         <v>71</v>
@@ -28530,7 +28530,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="45" t="s">
         <v>56</v>
@@ -28562,7 +28562,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="35" t="s">
         <v>71</v>
@@ -28600,7 +28600,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>58</v>
@@ -28632,7 +28632,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>71</v>
@@ -28670,7 +28670,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>60</v>
@@ -28702,7 +28702,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>71</v>
@@ -28729,7 +28729,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="45" t="s">
         <v>61</v>
@@ -28761,7 +28761,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>71</v>
@@ -28788,7 +28788,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="45" t="s">
         <v>62</v>
@@ -28820,7 +28820,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="35" t="s">
         <v>71</v>
@@ -28847,7 +28847,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="45" t="s">
         <v>63</v>
@@ -28879,7 +28879,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="35" t="s">
         <v>71</v>
@@ -28906,7 +28906,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="45" t="s">
         <v>64</v>
@@ -28938,7 +28938,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="35" t="s">
         <v>71</v>
@@ -28965,7 +28965,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="45" t="s">
         <v>65</v>
@@ -28997,7 +28997,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="35" t="s">
         <v>71</v>
@@ -29035,7 +29035,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>67</v>
@@ -29067,7 +29067,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="35" t="s">
         <v>71</v>
@@ -29177,7 +29177,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -30034,7 +30034,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>38</v>
@@ -30062,7 +30062,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>71</v>
@@ -30087,7 +30087,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>41</v>
@@ -30115,7 +30115,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>71</v>
@@ -30321,7 +30321,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
@@ -30349,7 +30349,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="35" t="s">
         <v>71</v>
@@ -30374,7 +30374,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="45" t="s">
         <v>48</v>
@@ -30402,7 +30402,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>71</v>
@@ -30427,7 +30427,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>50</v>
@@ -30455,7 +30455,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>71</v>
@@ -30491,7 +30491,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>52</v>
@@ -30519,7 +30519,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>71</v>
@@ -30544,7 +30544,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>53</v>
@@ -30572,7 +30572,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>71</v>
@@ -30597,7 +30597,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="45" t="s">
         <v>54</v>
@@ -30625,7 +30625,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>71</v>
@@ -30650,7 +30650,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="45" t="s">
         <v>55</v>
@@ -30678,7 +30678,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="35" t="s">
         <v>71</v>
@@ -30703,7 +30703,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="45" t="s">
         <v>56</v>
@@ -30731,7 +30731,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="35" t="s">
         <v>71</v>
@@ -30767,7 +30767,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>58</v>
@@ -30795,7 +30795,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>71</v>
@@ -30831,7 +30831,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>60</v>
@@ -30859,7 +30859,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>71</v>
@@ -30884,7 +30884,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="45" t="s">
         <v>61</v>
@@ -30912,7 +30912,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>71</v>
@@ -30937,7 +30937,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="45" t="s">
         <v>62</v>
@@ -30965,7 +30965,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="35" t="s">
         <v>71</v>
@@ -30990,7 +30990,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="45" t="s">
         <v>63</v>
@@ -31018,7 +31018,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="35" t="s">
         <v>71</v>
@@ -31043,7 +31043,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="45" t="s">
         <v>64</v>
@@ -31071,7 +31071,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="35" t="s">
         <v>71</v>
@@ -31096,7 +31096,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="45" t="s">
         <v>65</v>
@@ -31124,7 +31124,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="35" t="s">
         <v>71</v>
@@ -31160,7 +31160,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>67</v>
@@ -31188,7 +31188,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="35" t="s">
         <v>71</v>
@@ -31290,7 +31290,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -32221,7 +32221,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>38</v>
@@ -32253,7 +32253,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>71</v>
@@ -32280,7 +32280,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>41</v>
@@ -32312,7 +32312,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>71</v>
@@ -32538,7 +32538,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
@@ -32570,7 +32570,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="35" t="s">
         <v>71</v>
@@ -32597,7 +32597,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="45" t="s">
         <v>48</v>
@@ -32626,7 +32626,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>71</v>
@@ -32651,7 +32651,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>50</v>
@@ -32683,7 +32683,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>71</v>
@@ -32721,7 +32721,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>52</v>
@@ -32753,7 +32753,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>71</v>
@@ -32780,7 +32780,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>53</v>
@@ -32812,7 +32812,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>71</v>
@@ -32839,7 +32839,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="45" t="s">
         <v>54</v>
@@ -32871,7 +32871,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>71</v>
@@ -32898,7 +32898,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="45" t="s">
         <v>55</v>
@@ -32930,7 +32930,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="35" t="s">
         <v>71</v>
@@ -32957,7 +32957,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="45" t="s">
         <v>56</v>
@@ -32989,7 +32989,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="35" t="s">
         <v>71</v>
@@ -33027,7 +33027,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>58</v>
@@ -33059,7 +33059,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>71</v>
@@ -33097,7 +33097,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>60</v>
@@ -33129,7 +33129,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>71</v>
@@ -33156,7 +33156,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="45" t="s">
         <v>61</v>
@@ -33188,7 +33188,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>71</v>
@@ -33215,7 +33215,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="45" t="s">
         <v>62</v>
@@ -33247,7 +33247,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="35" t="s">
         <v>71</v>
@@ -33274,7 +33274,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="45" t="s">
         <v>63</v>
@@ -33306,7 +33306,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="35" t="s">
         <v>71</v>
@@ -33333,7 +33333,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="45" t="s">
         <v>64</v>
@@ -33365,7 +33365,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="35" t="s">
         <v>71</v>
@@ -33392,7 +33392,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="45" t="s">
         <v>65</v>
@@ -33421,7 +33421,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="35" t="s">
         <v>71</v>
@@ -33459,7 +33459,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>67</v>
@@ -33491,7 +33491,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="35" t="s">
         <v>71</v>
@@ -33601,7 +33601,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -34497,7 +34497,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>38</v>
@@ -34526,7 +34526,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>71</v>
@@ -34551,7 +34551,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>41</v>
@@ -34580,7 +34580,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>71</v>
@@ -34795,7 +34795,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
@@ -34824,7 +34824,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="35" t="s">
         <v>71</v>
@@ -34849,7 +34849,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="45" t="s">
         <v>48</v>
@@ -34878,7 +34878,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>71</v>
@@ -34913,7 +34913,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>50</v>
@@ -34942,7 +34942,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>71</v>
@@ -34981,7 +34981,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>52</v>
@@ -35010,7 +35010,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>71</v>
@@ -35035,7 +35035,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>53</v>
@@ -35064,7 +35064,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>71</v>
@@ -35089,7 +35089,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="45" t="s">
         <v>54</v>
@@ -35118,7 +35118,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>71</v>
@@ -35143,7 +35143,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="45" t="s">
         <v>55</v>
@@ -35169,7 +35169,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="35" t="s">
         <v>71</v>
@@ -35194,7 +35194,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="45" t="s">
         <v>56</v>
@@ -35223,7 +35223,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="35" t="s">
         <v>71</v>
@@ -35262,7 +35262,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>58</v>
@@ -35291,7 +35291,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>71</v>
@@ -35330,7 +35330,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>60</v>
@@ -35359,7 +35359,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>71</v>
@@ -35384,7 +35384,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="45" t="s">
         <v>61</v>
@@ -35413,7 +35413,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>71</v>
@@ -35438,7 +35438,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="45" t="s">
         <v>62</v>
@@ -35467,7 +35467,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="35" t="s">
         <v>71</v>
@@ -35492,7 +35492,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="45" t="s">
         <v>63</v>
@@ -35521,7 +35521,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="35" t="s">
         <v>71</v>
@@ -35546,7 +35546,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="45" t="s">
         <v>64</v>
@@ -35575,7 +35575,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="35" t="s">
         <v>71</v>
@@ -35600,7 +35600,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="45" t="s">
         <v>65</v>
@@ -35629,7 +35629,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="35" t="s">
         <v>71</v>
@@ -35668,7 +35668,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>67</v>
@@ -35697,7 +35697,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="35" t="s">
         <v>71</v>
@@ -35803,7 +35803,7 @@
   <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -36706,7 +36706,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>38</v>
@@ -36735,7 +36735,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>71</v>
@@ -36760,7 +36760,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>41</v>
@@ -36789,7 +36789,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>71</v>
@@ -36998,7 +36998,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
@@ -37027,7 +37027,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="35" t="s">
         <v>71</v>
@@ -37052,7 +37052,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="45" t="s">
         <v>48</v>
@@ -37081,7 +37081,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>71</v>
@@ -37117,7 +37117,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>50</v>
@@ -37146,7 +37146,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>71</v>
@@ -37182,7 +37182,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>52</v>
@@ -37211,7 +37211,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>71</v>
@@ -37236,7 +37236,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>53</v>
@@ -37265,7 +37265,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>71</v>
@@ -37290,7 +37290,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="45" t="s">
         <v>54</v>
@@ -37319,7 +37319,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>71</v>
@@ -37344,7 +37344,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="45" t="s">
         <v>55</v>
@@ -37373,7 +37373,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="35" t="s">
         <v>71</v>
@@ -37398,7 +37398,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="45" t="s">
         <v>56</v>
@@ -37427,7 +37427,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="35" t="s">
         <v>71</v>
@@ -37463,7 +37463,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>58</v>
@@ -37492,7 +37492,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>71</v>
@@ -37528,7 +37528,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>60</v>
@@ -37557,7 +37557,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>71</v>
@@ -37582,7 +37582,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="45" t="s">
         <v>61</v>
@@ -37611,7 +37611,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>71</v>
@@ -37636,7 +37636,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="45" t="s">
         <v>62</v>
@@ -37665,7 +37665,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="35" t="s">
         <v>71</v>
@@ -37690,7 +37690,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="45" t="s">
         <v>63</v>
@@ -37719,7 +37719,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="35" t="s">
         <v>71</v>
@@ -37744,7 +37744,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="45" t="s">
         <v>64</v>
@@ -37773,7 +37773,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="35" t="s">
         <v>71</v>
@@ -37798,7 +37798,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="45" t="s">
         <v>65</v>
@@ -37827,7 +37827,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="35" t="s">
         <v>71</v>
@@ -37863,7 +37863,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>67</v>
@@ -37898,7 +37898,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="35" t="s">
         <v>71</v>
@@ -38001,7 +38001,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -38990,7 +38990,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>38</v>
@@ -39022,7 +39022,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>71</v>
@@ -39049,7 +39049,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>41</v>
@@ -39081,7 +39081,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>71</v>
@@ -39307,7 +39307,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
@@ -39339,7 +39339,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="35" t="s">
         <v>71</v>
@@ -39366,7 +39366,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="45" t="s">
         <v>48</v>
@@ -39398,7 +39398,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>71</v>
@@ -39436,7 +39436,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>50</v>
@@ -39468,7 +39468,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>71</v>
@@ -39506,7 +39506,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>52</v>
@@ -39538,7 +39538,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>71</v>
@@ -39565,7 +39565,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>53</v>
@@ -39597,7 +39597,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>71</v>
@@ -39624,7 +39624,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="45" t="s">
         <v>54</v>
@@ -39656,7 +39656,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>71</v>
@@ -39683,7 +39683,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="45" t="s">
         <v>55</v>
@@ -39715,7 +39715,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="35" t="s">
         <v>71</v>
@@ -39742,7 +39742,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="45" t="s">
         <v>56</v>
@@ -39774,7 +39774,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="35" t="s">
         <v>71</v>
@@ -39812,7 +39812,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>58</v>
@@ -39844,7 +39844,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>71</v>
@@ -39882,7 +39882,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>60</v>
@@ -39914,7 +39914,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>71</v>
@@ -39941,7 +39941,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="45" t="s">
         <v>61</v>
@@ -39973,7 +39973,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>71</v>
@@ -40000,7 +40000,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="45" t="s">
         <v>62</v>
@@ -40032,7 +40032,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="35" t="s">
         <v>71</v>
@@ -40059,7 +40059,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="45" t="s">
         <v>63</v>
@@ -40091,7 +40091,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="35" t="s">
         <v>71</v>
@@ -40118,7 +40118,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="45" t="s">
         <v>64</v>
@@ -40150,7 +40150,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="35" t="s">
         <v>71</v>
@@ -40177,7 +40177,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="45" t="s">
         <v>65</v>
@@ -40209,7 +40209,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="35" t="s">
         <v>71</v>
@@ -40247,7 +40247,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>67</v>
@@ -40279,7 +40279,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="35" t="s">
         <v>71</v>
